--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -881,6 +881,33 @@
       </c>
       <c r="G14" s="5" t="n">
         <v>0.77</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-04-18</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>45034.50914052363</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>176fstrrun</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>46</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1436,29 +1463,29 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
       <c r="B12" s="10" t="n">
-        <v>45027.79182425857</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>45027.79182425926</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
         <is>
           <t>175fstwp</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>0.72</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -884,30 +884,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>45034.50914052363</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>45034.50914052084</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>176fstrrun</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>46</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-19</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>45035.68724181713</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>176scndwp</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>45036.40350466435</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>176fnlwp</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -1147,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1487,6 +1541,87 @@
       </c>
       <c r="G12" s="5" t="n">
         <v>0.72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-20</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="n">
+        <v>45036.50684728009</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>176betawp</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>2023-04-27</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>45043.47313921296</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>176livewp</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-04-28</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>45044.70069486451</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>176fstworkprofile</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>46</v>
+      </c>
+      <c r="E15" t="n">
+        <v>46</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -962,6 +962,222 @@
       </c>
       <c r="G17" s="5" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>45062.81289792824</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>177fstwp</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-17</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>45063.68571141204</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>177scndwp</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>45064.35395050926</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>177fnlwp</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-23</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>45069.65215032407</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>177htxwp</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>45071.49981679398</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>178dday1wp</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-26</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>45072.5254015625</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>178daytwowp</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-29</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>45075.46137298611</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>178daythreewp</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-06-12</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>45089.61020663539</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>178wpddy</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>46</v>
+      </c>
+      <c r="E25" t="n">
+        <v>46</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.87</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1598,30 +1814,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>2023-04-28</t>
         </is>
       </c>
       <c r="B15" s="10" t="n">
-        <v>45044.70069486451</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>45044.70069486111</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
         <is>
           <t>176fstworkprofile</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>46</v>
-      </c>
-      <c r="E15" t="n">
-        <v>46</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="D15" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-18</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>45064.49039324074</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>176betawwp</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>2023-05-19</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>45065.5733243287</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>177livewp</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BETA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AMSIN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BETA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="AMS" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="INDIA" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1154,30 +1154,57 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>2023-06-12</t>
         </is>
       </c>
       <c r="B25" s="10" t="n">
-        <v>45089.61020663539</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>45089.61020663194</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>178wpddy</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>46</v>
-      </c>
-      <c r="E25" t="n">
-        <v>46</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="D25" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>45138.42446589121</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>180wp</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1892,6 +1919,60 @@
       </c>
       <c r="G17" s="5" t="n">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>45139.54266929398</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>180wp</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>45139.86707080723</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>180livewp</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>46</v>
+      </c>
+      <c r="E19" t="n">
+        <v>46</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1205,6 +1205,492 @@
       </c>
       <c r="G26" s="5" t="n">
         <v>1.09</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>45202.53071664352</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>183wpscnd</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>45203.49979915509</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>183fnlwp</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>45226.67901657407</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>184fstwp</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>45229.38590054398</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>184fnlwp</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>45258.44405940973</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>185wpfst</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>45259.37036850694</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>185wplst</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>45275.73456265046</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>186wprofile</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45278.42021545139</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>186wpfnl</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45299.70579532407</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>187fstwpp</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45301.33138802083</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t>187lastwp</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45301.33478380787</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>187lstwwpp</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45323.65633979167</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>188wpfstccy</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45324.84046947917</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>188wpscncycl</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45327.40162543982</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
+        <is>
+          <t>188lstwp</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B41" s="10" t="n">
+        <v>45341.52421791667</v>
+      </c>
+      <c r="C41" s="5" t="inlineStr">
+        <is>
+          <t>188wpddd</t>
+        </is>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="n">
+        <v>45357.66183476852</v>
+      </c>
+      <c r="C42" s="5" t="inlineStr">
+        <is>
+          <t>189fstwp</t>
+        </is>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>45358.54044542824</v>
+      </c>
+      <c r="C43" s="5" t="inlineStr">
+        <is>
+          <t>189scndwpp</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F43" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>45359.34469503472</v>
+      </c>
+      <c r="C44" s="5" t="inlineStr">
+        <is>
+          <t>189fnlwp</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1949,30 +2435,489 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
       <c r="B19" s="10" t="n">
-        <v>45139.86707080723</v>
-      </c>
-      <c r="C19" t="inlineStr">
+        <v>45139.86707081019</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>180livewp</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>46</v>
-      </c>
-      <c r="E19" t="n">
-        <v>46</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="D19" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>45203.52098706018</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>183betawp</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>45203.92843318287</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>183liewp</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-19</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="n">
+        <v>45218.99512141204</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>183lbwp</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>45219.01836657408</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>183lbwwpp</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>45229.64138260417</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>184betawp</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>45229.79646427083</v>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>184wplive</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="n">
+        <v>45259.57201579861</v>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>185betawp</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="n">
+        <v>45259.89927109954</v>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>185wplive</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="n">
+        <v>45278.57197899306</v>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>186betawp</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="n">
+        <v>45278.8104437037</v>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>186livewp</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>45279.49420003472</v>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>186wpliv</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="n">
+        <v>45301.55819679398</v>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>187betawp</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>2024-01-10</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>45301.87711321759</v>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>187livewp</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>45327.56979539352</v>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>188betawp</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F33" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>45327.87632556713</v>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>188livewp</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="n">
+        <v>45359.44083537037</v>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>189betawp</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="n">
+        <v>45359.73304665274</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>189livewp</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>46</v>
+      </c>
+      <c r="E36" t="n">
+        <v>46</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1691,6 +1691,168 @@
       </c>
       <c r="G44" s="5" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="n">
+        <v>45379.53211018519</v>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>190fstwp</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="B46" s="10" t="n">
+        <v>45380.4774421875</v>
+      </c>
+      <c r="C46" s="5" t="inlineStr">
+        <is>
+          <t>190scndwp</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>45383.36922920139</v>
+      </c>
+      <c r="C47" s="5" t="inlineStr">
+        <is>
+          <t>190fnlwp</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B48" s="10" t="n">
+        <v>45414.47397732639</v>
+      </c>
+      <c r="C48" s="5" t="inlineStr">
+        <is>
+          <t>191fstwp</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="n">
+        <v>45414.55501819444</v>
+      </c>
+      <c r="C49" s="5" t="inlineStr">
+        <is>
+          <t>191wprofile</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="n">
+        <v>45415.33852509259</v>
+      </c>
+      <c r="C50" s="5" t="inlineStr">
+        <is>
+          <t>191lstwp</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +2092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -2894,29 +3056,110 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="5" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
       <c r="B36" s="10" t="n">
-        <v>45359.73304665274</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>45359.73304665509</v>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
         <is>
           <t>189livewp</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>46</v>
-      </c>
-      <c r="E36" t="n">
-        <v>46</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="D36" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="n">
+        <v>45383.53188237268</v>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>190betawpp</t>
+        </is>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>2024-04-01</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="n">
+        <v>45383.85208363426</v>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>190livewp</t>
+        </is>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>45415.60713529508</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>191betyawp</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>46</v>
+      </c>
+      <c r="E39" t="n">
+        <v>46</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.82</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -2092,7 +2092,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -3137,30 +3137,57 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="5" t="inlineStr">
         <is>
           <t>2024-05-03</t>
         </is>
       </c>
       <c r="B39" s="10" t="n">
-        <v>45415.60713529508</v>
-      </c>
-      <c r="C39" t="inlineStr">
+        <v>45415.60713528935</v>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
         <is>
           <t>191betyawp</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>46</v>
-      </c>
-      <c r="E39" t="n">
-        <v>46</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="D39" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="B40" s="10" t="n">
+        <v>45418.56239297272</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>191livewpp</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>46</v>
+      </c>
+      <c r="E40" t="n">
+        <v>46</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1853,6 +1853,33 @@
       </c>
       <c r="G50" s="5" t="n">
         <v>0.73</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="n">
+        <v>45467.44727248333</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>193wpfixes</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>46</v>
+      </c>
+      <c r="E51" t="n">
+        <v>46</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -3164,29 +3191,29 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>2024-05-06</t>
         </is>
       </c>
       <c r="B40" s="10" t="n">
-        <v>45418.56239297272</v>
-      </c>
-      <c r="C40" t="inlineStr">
+        <v>45418.56239297453</v>
+      </c>
+      <c r="C40" s="5" t="inlineStr">
         <is>
           <t>191livewpp</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>46</v>
-      </c>
-      <c r="E40" t="n">
-        <v>46</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="D40" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5" t="n">
         <v>1.33</v>
       </c>
     </row>

--- a/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
+++ b/Reports/Graph_Sprint_Data/UI_WorkProfile_REGISTRATION_HISTORY_DATA.xlsx
@@ -478,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C8:C13 C2"/>
@@ -1856,30 +1856,84 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="5" t="inlineStr">
         <is>
           <t>2024-06-24</t>
         </is>
       </c>
       <c r="B51" s="10" t="n">
-        <v>45467.44727248333</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>45467.44727248843</v>
+      </c>
+      <c r="C51" s="5" t="inlineStr">
         <is>
           <t>193wpfixes</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>46</v>
-      </c>
-      <c r="E51" t="n">
-        <v>46</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="D51" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="n">
         <v>0.78</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="n">
+        <v>45489.63780810185</v>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>194fstwp</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B53" s="10" t="n">
+        <v>45491.35589402778</v>
+      </c>
+      <c r="C53" s="5" t="inlineStr">
+        <is>
+          <t>194fnlwp</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:C13"/>
@@ -2102,7 +2156,33 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="6"/>
+    <row r="8" ht="13.8" customHeight="1" s="6">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>45491.63395728717</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>194betawp</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>46</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
     <row r="9" ht="13.8" customHeight="1" s="6"/>
     <row r="10" ht="13.8" customHeight="1" s="6"/>
     <row r="11" ht="13.8" customHeight="1" s="6"/>
